--- a/asset/template.xlsx
+++ b/asset/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Class Name</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Callsign9</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>#7f6798</t>
@@ -1495,7 +1498,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1704,13 +1707,13 @@
         <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:6">
@@ -1718,19 +1721,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:6">
@@ -1738,19 +1741,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:6">
@@ -1758,19 +1761,19 @@
         <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
